--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannek-AlexanderKarg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\repos\Zinoberous\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8562FD-5EA6-430C-84C8-50AA9AA15305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE85D190-B2AD-4BFC-B7C6-C6CF0FDD1A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{DF228160-C261-4103-82CA-F1916CA729F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DF228160-C261-4103-82CA-F1916CA729F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Spalte 1</t>
   </si>
@@ -153,33 +153,6 @@
     <t>Z2-S4</t>
   </si>
   <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>Z1T1</t>
-  </si>
-  <si>
-    <t>Z2T1</t>
-  </si>
-  <si>
-    <t>Z1T2</t>
-  </si>
-  <si>
-    <t>Z1T3</t>
-  </si>
-  <si>
-    <t>Z2T2</t>
-  </si>
-  <si>
-    <t>Z2T3</t>
-  </si>
-  <si>
     <t>Z5-S1</t>
   </si>
   <si>
@@ -199,13 +172,55 @@
   </si>
   <si>
     <t>Z5-S3</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>www.wikipedia.com</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +241,14 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,16 +267,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -596,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6589E5AE-3B35-483D-B64B-FA5D41AD5011}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -620,10 +647,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -637,8 +664,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -650,8 +677,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -663,31 +690,31 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -704,48 +731,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E1CE76-11E7-4E78-BABA-3BD011FBA4AF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44198.341666666667</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>555</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44560.648611111108</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{1D333FBC-DA5F-4553-ACF0-995443EB7F35}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{1542DAF3-F7A4-42B1-A880-1FD809569F2A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>